--- a/src/document/database excel/basedata/basedata.xlsx
+++ b/src/document/database excel/basedata/basedata.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="relational model" sheetId="1" r:id="rId4"/>
-    <sheet name="person" sheetId="2" r:id="rId5"/>
-    <sheet name="personPossession" sheetId="3" r:id="rId6"/>
-    <sheet name="possession" sheetId="4" r:id="rId7"/>
-    <sheet name="supplier" sheetId="5" r:id="rId8"/>
-    <sheet name="supplierProduct" sheetId="6" r:id="rId9"/>
-    <sheet name="accountBank" sheetId="7" r:id="rId10"/>
-    <sheet name="staff" sheetId="8" r:id="rId11"/>
-    <sheet name="工作表 10" sheetId="9" r:id="rId12"/>
+    <sheet name="relational model" sheetId="1" r:id="rId1"/>
+    <sheet name="customer" sheetId="2" r:id="rId2"/>
+    <sheet name="personPossession" sheetId="3" r:id="rId3"/>
+    <sheet name="possession" sheetId="4" r:id="rId4"/>
+    <sheet name="supplier" sheetId="5" r:id="rId5"/>
+    <sheet name="supplierProduct" sheetId="6" r:id="rId6"/>
+    <sheet name="accountBank" sheetId="7" r:id="rId7"/>
+    <sheet name="staff" sheetId="8" r:id="rId8"/>
+    <sheet name="工作表 10" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="198">
   <si>
     <t>实体名</t>
   </si>
@@ -618,31 +621,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -843,121 +833,173 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -971,7 +1013,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>105298</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -997,7 +1039,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1022,7 +1064,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1037,7 +1079,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1050,23 +1092,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>客户</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>person</a:t>
+            <a:t>客户person</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1086,7 +1112,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114823</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1112,7 +1138,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1137,7 +1163,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1152,7 +1178,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1165,23 +1191,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>店铺</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>shop</a:t>
+            <a:t>店铺shop</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1201,7 +1211,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95091</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
@@ -1224,7 +1234,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1249,7 +1259,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1264,7 +1274,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1277,23 +1287,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>店铺客户关系</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>shopPerson</a:t>
+            <a:t>店铺客户关系shopPerson</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1313,7 +1307,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>51117</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="Connector 5"/>
         <xdr:cNvCxnSpPr>
@@ -1356,7 +1350,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>41592</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Connector 6"/>
         <xdr:cNvCxnSpPr>
@@ -1399,7 +1393,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>117997</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
         <xdr:cNvSpPr/>
@@ -1425,7 +1419,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1450,7 +1444,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1465,7 +1459,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1478,23 +1472,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>财富</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>possession</a:t>
+            <a:t>财富possession</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1514,7 +1492,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>158591</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
@@ -1537,7 +1515,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1562,7 +1540,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1577,7 +1555,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:rPr sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1590,23 +1568,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>客户拥有财务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>personPossession</a:t>
+            <a:t>客户拥有财务personPossession</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1626,7 +1588,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Connector 9"/>
         <xdr:cNvCxnSpPr>
@@ -1669,7 +1631,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>54291</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Connector 10"/>
         <xdr:cNvCxnSpPr>
@@ -1703,7 +1665,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1829,7 +1791,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1838,7 +1800,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1847,7 +1809,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1921,7 +1883,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1929,7 +1891,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1948,7 +1910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1978,7 +1940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2004,7 +1966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2030,7 +1992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2056,7 +2018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2082,7 +2044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2108,7 +2070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2134,7 +2096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2160,7 +2122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2186,7 +2148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2199,9 +2161,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2216,7 +2184,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2224,7 +2192,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2243,7 +2211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2269,7 +2237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2295,7 +2263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2321,7 +2289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2347,7 +2315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2373,7 +2341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2399,7 +2367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2425,7 +2393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2451,7 +2419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2477,7 +2445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2490,9 +2458,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2506,7 +2480,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2525,7 +2499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2555,7 +2529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2581,7 +2555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2607,7 +2581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2633,7 +2607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2659,7 +2633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2685,7 +2659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2711,7 +2685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2737,7 +2711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2763,7 +2737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2776,645 +2750,646 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>100</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" t="s" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="7">
+    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>50</v>
       </c>
-      <c r="E14" t="s" s="7">
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" t="s" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="7">
+    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" t="s" s="7">
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" t="s" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="7">
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>50</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>50</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>50</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>50</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>50</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>50</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>50</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>200</v>
       </c>
-      <c r="E31" t="s" s="7">
+      <c r="E31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>50</v>
       </c>
-      <c r="E32" t="s" s="7">
+      <c r="E32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" t="s" s="7">
+      <c r="D33" s="6"/>
+      <c r="E33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="C34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>50</v>
       </c>
-      <c r="E34" t="s" s="7">
+      <c r="E34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" t="s" s="7">
+      <c r="D35" s="6"/>
+      <c r="E35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3422,8 +3397,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3431,197 +3407,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.7344" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" customWidth="1"/>
-    <col min="9" max="256" width="9" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="8" customWidth="1"/>
+    <col min="3" max="7" width="9" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" customWidth="1"/>
+    <col min="9" max="256" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s" s="7">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3629,8 +3601,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3638,199 +3611,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.1562" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9" style="12" customWidth="1"/>
-    <col min="9" max="256" width="9" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="10" customWidth="1"/>
+    <col min="3" max="256" width="9" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>100</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" t="s" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s" s="7">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="13">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3838,8 +3805,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3847,183 +3815,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5781" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="256" width="9" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="12" customWidth="1"/>
+    <col min="2" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>100</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4031,8 +3992,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4040,203 +4002,195 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9" style="15" customWidth="1"/>
-    <col min="9" max="256" width="9" style="15" customWidth="1"/>
+    <col min="1" max="256" width="9" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s" s="7">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" t="s" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4246,8 +4200,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4255,791 +4210,785 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.1562" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9" style="16" customWidth="1"/>
-    <col min="9" max="256" width="9" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="14" customWidth="1"/>
+    <col min="3" max="256" width="9" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>50</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="C47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <v>200</v>
       </c>
-      <c r="E47" t="s" s="7">
+      <c r="E47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C48" t="s" s="7">
+      <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>50</v>
       </c>
-      <c r="E48" t="s" s="7">
+      <c r="E48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C49" t="s" s="7">
+      <c r="C49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" t="s" s="7">
+      <c r="D49" s="6"/>
+      <c r="E49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="C50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <v>50</v>
       </c>
-      <c r="E50" t="s" s="7">
+      <c r="E50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C51" t="s" s="7">
+      <c r="C51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" t="s" s="7">
+      <c r="D51" s="6"/>
+      <c r="E51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5047,8 +4996,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5056,571 +5006,563 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9" style="17" customWidth="1"/>
-    <col min="9" max="256" width="9" style="17" customWidth="1"/>
+    <col min="1" max="256" width="9" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" t="s" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>100</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" t="s" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>50</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" t="s" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" t="s" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>50</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>50</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>50</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>50</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>50</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>50</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>50</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>50</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>50</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>50</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>50</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>200</v>
       </c>
-      <c r="E26" t="s" s="7">
+      <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" t="s" s="7">
+      <c r="E27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" t="s" s="7">
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>50</v>
       </c>
-      <c r="E29" t="s" s="7">
+      <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" t="s" s="7">
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5628,8 +5570,9 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5637,99 +5580,98 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" customWidth="1"/>
-    <col min="6" max="256" width="14" style="18" customWidth="1"/>
+    <col min="1" max="256" width="14" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
